--- a/data-raw/data-tidy/livestock-yearbook/02-breeding/year-2016-5.xlsx
+++ b/data-raw/data-tidy/livestock-yearbook/02-breeding/year-2016-5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">2016</t>
   </si>
   <si>
-    <t xml:space="preserve">种羊场</t>
+    <t xml:space="preserve">种肉鸡场</t>
   </si>
   <si>
-    <t xml:space="preserve">只</t>
+    <t xml:space="preserve">套</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zyc</t>
+    <t xml:space="preserve">v8_t5_nmcl_zrjc</t>
   </si>
   <si>
     <t xml:space="preserve">北京</t>
@@ -140,49 +140,67 @@
     <t xml:space="preserve">新疆</t>
   </si>
   <si>
-    <t xml:space="preserve">种绵羊场</t>
+    <t xml:space="preserve">祖代及以上肉鸡场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zmyc</t>
+    <t xml:space="preserve">v8_t5_nmcl_zdjysrjc</t>
   </si>
   <si>
-    <t xml:space="preserve">种细毛羊场</t>
+    <t xml:space="preserve">父母代肉鸡场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zxmyc</t>
+    <t xml:space="preserve">v8_t5_nmcl_fmdrjc</t>
   </si>
   <si>
-    <t xml:space="preserve">种山羊场</t>
+    <t xml:space="preserve">种鸭场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zsyc</t>
+    <t xml:space="preserve">只</t>
   </si>
   <si>
-    <t xml:space="preserve">种绒山羊场</t>
+    <t xml:space="preserve">v8_t5_nmcl_zyc</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zmsyc</t>
+    <t xml:space="preserve">种鹅场</t>
   </si>
   <si>
-    <t xml:space="preserve">种蛋鸡场</t>
+    <t xml:space="preserve">v8_t5_nmcl_zec</t>
   </si>
   <si>
-    <t xml:space="preserve">套</t>
+    <t xml:space="preserve">种兔场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zdjc</t>
+    <t xml:space="preserve">v8_t5_nmcl_ztc</t>
   </si>
   <si>
-    <t xml:space="preserve">祖代及以上蛋鸡场</t>
+    <t xml:space="preserve">种蜂场</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_zdjysdjc</t>
+    <t xml:space="preserve">箱</t>
   </si>
   <si>
-    <t xml:space="preserve">父母代蛋鸡场</t>
+    <t xml:space="preserve">v8_t5_nmcl_zfc</t>
   </si>
   <si>
-    <t xml:space="preserve">v8_t4_nmcl_fmddjc</t>
+    <t xml:space="preserve">种公牛站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">头</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种公羊站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">种公猪站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v8_t5_nmcl_zgzz</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4075877</v>
+        <v>95512557</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -565,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4185</v>
+        <v>1117527</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -585,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>45398</v>
+        <v>62400</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -605,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>92237</v>
+        <v>2654700</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -625,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>73240</v>
+        <v>1976600</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -645,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>791080</v>
+        <v>691187</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -665,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>37139</v>
+        <v>7603818</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -685,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>52503</v>
+        <v>3923411</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -705,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>20947</v>
+        <v>1093576</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -725,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>3549</v>
+        <v>86800</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -745,7 +763,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>17410</v>
+        <v>3257671</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -765,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>88751</v>
+        <v>1911150</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -785,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>170850</v>
+        <v>4306646</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -805,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>9007</v>
+        <v>9703084</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -825,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>5823</v>
+        <v>641508</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -845,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>142408</v>
+        <v>17261943</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -865,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>194098</v>
+        <v>7209650</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -885,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>99726</v>
+        <v>2592216</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -905,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>20388</v>
+        <v>2395490</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -925,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>12126</v>
+        <v>10127874</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -945,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>21338</v>
+        <v>8919379</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -965,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>16671</v>
+        <v>1406131</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -985,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>31302</v>
+        <v>605248</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1005,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>129295</v>
+        <v>2256603</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1025,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>56310</v>
+        <v>723492</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1045,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>69607</v>
+        <v>1042136</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1065,7 +1083,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>8809</v>
+        <v>45000</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1085,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>52787</v>
+        <v>689880</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1105,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>319249</v>
+        <v>505432</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1125,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>154158</v>
+        <v>14000</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1145,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>24391</v>
+        <v>360005</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1165,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>1311095</v>
+        <v>328000</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1185,7 +1203,7 @@
         <v>42</v>
       </c>
       <c r="D34" t="n">
-        <v>3176426</v>
+        <v>7818106</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
@@ -1203,7 +1221,7 @@
         <v>42</v>
       </c>
       <c r="D35" t="n">
-        <v>4185</v>
+        <v>389065</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
@@ -1221,7 +1239,7 @@
         <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>45398</v>
+        <v>0</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
@@ -1239,7 +1257,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>73476</v>
+        <v>259000</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
@@ -1257,7 +1275,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>52826</v>
+        <v>4600</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
@@ -1275,7 +1293,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>708887</v>
+        <v>151287</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -1293,7 +1311,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>10490</v>
+        <v>63400</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
@@ -1311,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>42955</v>
+        <v>98000</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
@@ -1329,7 +1347,7 @@
         <v>42</v>
       </c>
       <c r="D42" t="n">
-        <v>18577</v>
+        <v>35340</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
@@ -1347,7 +1365,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>2312</v>
+        <v>1800</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
@@ -1365,7 +1383,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>8910</v>
+        <v>363800</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
@@ -1383,7 +1401,7 @@
         <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>88111</v>
+        <v>148628</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
@@ -1401,7 +1419,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>40342</v>
+        <v>465050</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
@@ -1419,7 +1437,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>157360</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
@@ -1437,7 +1455,7 @@
         <v>42</v>
       </c>
       <c r="D48" t="n">
-        <v>1628</v>
+        <v>41633</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
@@ -1455,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>113546</v>
+        <v>1018922</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
@@ -1473,7 +1491,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="n">
-        <v>172344</v>
+        <v>1605393</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
@@ -1491,7 +1509,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="n">
-        <v>5997</v>
+        <v>283400</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
@@ -1509,7 +1527,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>120551</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
@@ -1527,7 +1545,7 @@
         <v>42</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1670620</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
@@ -1545,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
@@ -1563,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>160860</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
@@ -1581,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>58621</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
@@ -1599,7 +1617,7 @@
         <v>42</v>
       </c>
       <c r="D57" t="n">
-        <v>6326</v>
+        <v>193048</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
@@ -1617,7 +1635,7 @@
         <v>42</v>
       </c>
       <c r="D58" t="n">
-        <v>26321</v>
+        <v>255230</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
@@ -1635,7 +1653,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>10088</v>
+        <v>127378</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
@@ -1653,7 +1671,7 @@
         <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
@@ -1671,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="n">
-        <v>15980</v>
+        <v>15120</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
@@ -1689,7 +1707,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="n">
-        <v>314817</v>
+        <v>0</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
@@ -1707,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="D63" t="n">
-        <v>144858</v>
+        <v>0</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
@@ -1725,7 +1743,7 @@
         <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>21195</v>
+        <v>0</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
@@ -1743,7 +1761,7 @@
         <v>42</v>
       </c>
       <c r="D65" t="n">
-        <v>1241057</v>
+        <v>0</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
@@ -1761,7 +1779,7 @@
         <v>44</v>
       </c>
       <c r="D66" t="n">
-        <v>426710</v>
+        <v>87694451</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
@@ -1779,7 +1797,7 @@
         <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>728462</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
@@ -1797,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>62400</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
@@ -1815,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>2340</v>
+        <v>2395700</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
@@ -1833,7 +1851,7 @@
         <v>44</v>
       </c>
       <c r="D70" t="n">
-        <v>1567</v>
+        <v>1972000</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
@@ -1851,7 +1869,7 @@
         <v>44</v>
       </c>
       <c r="D71" t="n">
-        <v>91052</v>
+        <v>539900</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
@@ -1869,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="D72" t="n">
-        <v>2123</v>
+        <v>7540418</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
@@ -1887,7 +1905,7 @@
         <v>44</v>
       </c>
       <c r="D73" t="n">
-        <v>27967</v>
+        <v>3825411</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
@@ -1905,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="D74" t="n">
-        <v>3431</v>
+        <v>1058236</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
@@ -1923,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
@@ -1941,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2893871</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
@@ -1959,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1762522</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
@@ -1977,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="D78" t="n">
-        <v>2500</v>
+        <v>3841596</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
@@ -1995,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>9545724</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
@@ -2013,7 +2031,7 @@
         <v>44</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>599875</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
@@ -2031,7 +2049,7 @@
         <v>44</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>16243021</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
@@ -2049,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="D82" t="n">
-        <v>17892</v>
+        <v>5604257</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
@@ -2067,7 +2085,7 @@
         <v>44</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>2308816</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
@@ -2085,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>2274939</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
@@ -2103,7 +2121,7 @@
         <v>44</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>8457254</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
@@ -2121,7 +2139,7 @@
         <v>44</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>8789379</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
@@ -2139,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1245271</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
@@ -2157,7 +2175,7 @@
         <v>44</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>546627</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
@@ -2175,7 +2193,7 @@
         <v>44</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>2063555</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
@@ -2193,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>468262</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
@@ -2211,7 +2229,7 @@
         <v>44</v>
       </c>
       <c r="D91" t="n">
-        <v>1485</v>
+        <v>914758</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
@@ -2229,7 +2247,7 @@
         <v>44</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
@@ -2247,7 +2265,7 @@
         <v>44</v>
       </c>
       <c r="D93" t="n">
-        <v>1793</v>
+        <v>674760</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
@@ -2265,7 +2283,7 @@
         <v>44</v>
       </c>
       <c r="D94" t="n">
-        <v>64671</v>
+        <v>505432</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
@@ -2283,7 +2301,7 @@
         <v>44</v>
       </c>
       <c r="D95" t="n">
-        <v>23710</v>
+        <v>14000</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
@@ -2301,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>360005</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
@@ -2319,7 +2337,7 @@
         <v>44</v>
       </c>
       <c r="D97" t="n">
-        <v>186179</v>
+        <v>328000</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
@@ -2337,13 +2355,13 @@
         <v>46</v>
       </c>
       <c r="D98" t="n">
-        <v>899451</v>
+        <v>21078382</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
@@ -2357,13 +2375,13 @@
         <v>46</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -2380,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -2397,13 +2415,13 @@
         <v>46</v>
       </c>
       <c r="D101" t="n">
-        <v>18761</v>
+        <v>432200</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102">
@@ -2417,13 +2435,13 @@
         <v>46</v>
       </c>
       <c r="D102" t="n">
-        <v>20414</v>
+        <v>228000</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103">
@@ -2437,13 +2455,13 @@
         <v>46</v>
       </c>
       <c r="D103" t="n">
-        <v>82193</v>
+        <v>557200</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
@@ -2457,13 +2475,13 @@
         <v>46</v>
       </c>
       <c r="D104" t="n">
-        <v>26649</v>
+        <v>411210</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
@@ -2477,13 +2495,13 @@
         <v>46</v>
       </c>
       <c r="D105" t="n">
-        <v>9548</v>
+        <v>25000</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
@@ -2497,13 +2515,13 @@
         <v>46</v>
       </c>
       <c r="D106" t="n">
-        <v>2370</v>
+        <v>112892</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107">
@@ -2517,13 +2535,13 @@
         <v>46</v>
       </c>
       <c r="D107" t="n">
-        <v>1237</v>
+        <v>50000</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108">
@@ -2537,13 +2555,13 @@
         <v>46</v>
       </c>
       <c r="D108" t="n">
-        <v>8500</v>
+        <v>2046650</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109">
@@ -2557,13 +2575,13 @@
         <v>46</v>
       </c>
       <c r="D109" t="n">
-        <v>640</v>
+        <v>470382</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110">
@@ -2577,13 +2595,13 @@
         <v>46</v>
       </c>
       <c r="D110" t="n">
-        <v>130508</v>
+        <v>3057530</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111">
@@ -2597,13 +2615,13 @@
         <v>46</v>
       </c>
       <c r="D111" t="n">
-        <v>9007</v>
+        <v>111188</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112">
@@ -2617,13 +2635,13 @@
         <v>46</v>
       </c>
       <c r="D112" t="n">
-        <v>4195</v>
+        <v>589930</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113">
@@ -2637,13 +2655,13 @@
         <v>46</v>
       </c>
       <c r="D113" t="n">
-        <v>28862</v>
+        <v>7815854</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114">
@@ -2657,13 +2675,13 @@
         <v>46</v>
       </c>
       <c r="D114" t="n">
-        <v>21754</v>
+        <v>873740</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115">
@@ -2677,13 +2695,13 @@
         <v>46</v>
       </c>
       <c r="D115" t="n">
-        <v>93729</v>
+        <v>468520</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116">
@@ -2697,13 +2715,13 @@
         <v>46</v>
       </c>
       <c r="D116" t="n">
-        <v>20388</v>
+        <v>201445</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117">
@@ -2717,13 +2735,13 @@
         <v>46</v>
       </c>
       <c r="D117" t="n">
-        <v>12126</v>
+        <v>406889</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118">
@@ -2737,13 +2755,13 @@
         <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>21338</v>
+        <v>2105539</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119">
@@ -2757,13 +2775,13 @@
         <v>46</v>
       </c>
       <c r="D119" t="n">
-        <v>16671</v>
+        <v>268381</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120">
@@ -2777,13 +2795,13 @@
         <v>46</v>
       </c>
       <c r="D120" t="n">
-        <v>31302</v>
+        <v>102980</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
@@ -2797,13 +2815,13 @@
         <v>46</v>
       </c>
       <c r="D121" t="n">
-        <v>122969</v>
+        <v>444852</v>
       </c>
       <c r="E121" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122">
@@ -2817,13 +2835,13 @@
         <v>46</v>
       </c>
       <c r="D122" t="n">
-        <v>29989</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123">
@@ -2837,13 +2855,13 @@
         <v>46</v>
       </c>
       <c r="D123" t="n">
-        <v>59519</v>
+        <v>1000</v>
       </c>
       <c r="E123" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124">
@@ -2857,13 +2875,13 @@
         <v>46</v>
       </c>
       <c r="D124" t="n">
-        <v>3009</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125">
@@ -2877,13 +2895,13 @@
         <v>46</v>
       </c>
       <c r="D125" t="n">
-        <v>36807</v>
+        <v>222000</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126">
@@ -2897,13 +2915,13 @@
         <v>46</v>
       </c>
       <c r="D126" t="n">
-        <v>4432</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127">
@@ -2917,13 +2935,13 @@
         <v>46</v>
       </c>
       <c r="D127" t="n">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128">
@@ -2937,13 +2955,13 @@
         <v>46</v>
       </c>
       <c r="D128" t="n">
-        <v>3196</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129">
@@ -2957,13 +2975,13 @@
         <v>46</v>
       </c>
       <c r="D129" t="n">
-        <v>70038</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
@@ -2974,14 +2992,16 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D130" t="n">
-        <v>241035</v>
-      </c>
-      <c r="E130"/>
+        <v>2849277</v>
+      </c>
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
       <c r="F130" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
@@ -2992,14 +3012,16 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
-      <c r="E131"/>
+      <c r="E131" t="s">
+        <v>47</v>
+      </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
@@ -3010,14 +3032,16 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
-      <c r="E132"/>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
@@ -3028,14 +3052,16 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" t="n">
-        <v>16849</v>
-      </c>
-      <c r="E133"/>
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
       <c r="F133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134">
@@ -3046,14 +3072,16 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D134" t="n">
-        <v>7398</v>
-      </c>
-      <c r="E134"/>
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
@@ -3064,14 +3092,16 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D135" t="n">
-        <v>67107</v>
-      </c>
-      <c r="E135"/>
+        <v>24056</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
       <c r="F135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136">
@@ -3082,14 +3112,16 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D136" t="n">
-        <v>22969</v>
-      </c>
-      <c r="E136"/>
+        <v>39200</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
@@ -3100,14 +3132,16 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D137" t="n">
-        <v>9548</v>
-      </c>
-      <c r="E137"/>
+        <v>100860</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138">
@@ -3118,14 +3152,16 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138"/>
+        <v>144752</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
@@ -3136,14 +3172,16 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
-      <c r="E139"/>
+      <c r="E139" t="s">
+        <v>47</v>
+      </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140">
@@ -3154,14 +3192,16 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140"/>
+        <v>245600</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
       <c r="F140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141">
@@ -3172,14 +3212,16 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141"/>
+        <v>203707</v>
+      </c>
+      <c r="E141" t="s">
+        <v>47</v>
+      </c>
       <c r="F141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -3190,14 +3232,16 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142"/>
+        <v>194440</v>
+      </c>
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143">
@@ -3208,14 +3252,16 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D143" t="n">
-        <v>4235</v>
-      </c>
-      <c r="E143"/>
+        <v>51038</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
       <c r="F143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144">
@@ -3226,14 +3272,16 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144"/>
+        <v>57776</v>
+      </c>
+      <c r="E144" t="s">
+        <v>47</v>
+      </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145">
@@ -3244,14 +3292,16 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D145" t="n">
-        <v>3583</v>
-      </c>
-      <c r="E145"/>
+        <v>74640</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
@@ -3262,14 +3312,16 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D146" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E146"/>
+        <v>15138</v>
+      </c>
+      <c r="E146" t="s">
+        <v>47</v>
+      </c>
       <c r="F146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147">
@@ -3280,14 +3332,16 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147"/>
+        <v>47240</v>
+      </c>
+      <c r="E147" t="s">
+        <v>47</v>
+      </c>
       <c r="F147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -3298,14 +3352,16 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148"/>
+        <v>1081180</v>
+      </c>
+      <c r="E148" t="s">
+        <v>47</v>
+      </c>
       <c r="F148" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
@@ -3316,14 +3372,16 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149"/>
+        <v>180419</v>
+      </c>
+      <c r="E149" t="s">
+        <v>47</v>
+      </c>
       <c r="F149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
@@ -3334,14 +3392,16 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150"/>
+        <v>11647</v>
+      </c>
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
@@ -3352,14 +3412,16 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151"/>
+        <v>96024</v>
+      </c>
+      <c r="E151" t="s">
+        <v>47</v>
+      </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
@@ -3370,14 +3432,16 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152"/>
+        <v>15000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>47</v>
+      </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
@@ -3388,14 +3452,16 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153"/>
+        <v>67746</v>
+      </c>
+      <c r="E153" t="s">
+        <v>47</v>
+      </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154">
@@ -3406,14 +3472,16 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
-      <c r="E154"/>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
@@ -3424,14 +3492,16 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155"/>
+        <v>192014</v>
+      </c>
+      <c r="E155" t="s">
+        <v>47</v>
+      </c>
       <c r="F155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156">
@@ -3442,14 +3512,16 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D156" t="n">
-        <v>1299</v>
-      </c>
-      <c r="E156"/>
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>47</v>
+      </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157">
@@ -3460,14 +3532,16 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D157" t="n">
-        <v>23099</v>
-      </c>
-      <c r="E157"/>
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
       <c r="F157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158">
@@ -3478,14 +3552,16 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D158" t="n">
-        <v>3280</v>
-      </c>
-      <c r="E158"/>
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>47</v>
+      </c>
       <c r="F158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159">
@@ -3496,14 +3572,16 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D159" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E159"/>
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
       <c r="F159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
@@ -3514,14 +3592,16 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
-      <c r="E160"/>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
       <c r="F160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161">
@@ -3532,14 +3612,16 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D161" t="n">
-        <v>68368</v>
-      </c>
-      <c r="E161"/>
+        <v>6800</v>
+      </c>
+      <c r="E161" t="s">
+        <v>47</v>
+      </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162">
@@ -3550,13 +3632,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D162" t="n">
-        <v>53984290</v>
+        <v>4788511</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
         <v>52</v>
@@ -3570,13 +3652,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D163" t="n">
-        <v>2120010</v>
+        <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F163" t="s">
         <v>52</v>
@@ -3590,13 +3672,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D164" t="n">
-        <v>397618</v>
+        <v>2226</v>
       </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F164" t="s">
         <v>52</v>
@@ -3610,13 +3692,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D165" t="n">
-        <v>4514246</v>
+        <v>15300</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
         <v>52</v>
@@ -3630,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D166" t="n">
-        <v>1213000</v>
+        <v>41300</v>
       </c>
       <c r="E166" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F166" t="s">
         <v>52</v>
@@ -3650,13 +3732,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D167" t="n">
-        <v>11135496</v>
+        <v>3100000</v>
       </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F167" t="s">
         <v>52</v>
@@ -3670,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D168" t="n">
-        <v>1489994</v>
+        <v>7650</v>
       </c>
       <c r="E168" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
         <v>52</v>
@@ -3690,13 +3772,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D169" t="n">
-        <v>964400</v>
+        <v>55580</v>
       </c>
       <c r="E169" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
         <v>52</v>
@@ -3710,13 +3792,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D170" t="n">
-        <v>1344318</v>
+        <v>15900</v>
       </c>
       <c r="E170" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
         <v>52</v>
@@ -3730,13 +3812,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D171" t="n">
-        <v>97647</v>
+        <v>4800</v>
       </c>
       <c r="E171" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
         <v>52</v>
@@ -3750,13 +3832,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D172" t="n">
-        <v>2024131</v>
+        <v>13500</v>
       </c>
       <c r="E172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
         <v>52</v>
@@ -3770,13 +3852,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D173" t="n">
-        <v>618100</v>
+        <v>199010</v>
       </c>
       <c r="E173" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
         <v>52</v>
@@ -3790,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D174" t="n">
-        <v>2522062</v>
+        <v>14380</v>
       </c>
       <c r="E174" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
         <v>52</v>
@@ -3810,13 +3892,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D175" t="n">
-        <v>486899</v>
+        <v>67292</v>
       </c>
       <c r="E175" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
         <v>52</v>
@@ -3830,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
-        <v>770185</v>
+        <v>15490</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
         <v>52</v>
@@ -3850,13 +3932,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D177" t="n">
-        <v>4442958</v>
+        <v>331840</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
         <v>52</v>
@@ -3870,13 +3952,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D178" t="n">
-        <v>7733997</v>
+        <v>75000</v>
       </c>
       <c r="E178" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
         <v>52</v>
@@ -3890,13 +3972,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D179" t="n">
-        <v>1891937</v>
+        <v>23750</v>
       </c>
       <c r="E179" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F179" t="s">
         <v>52</v>
@@ -3910,13 +3992,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D180" t="n">
-        <v>979200</v>
+        <v>51147</v>
       </c>
       <c r="E180" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F180" t="s">
         <v>52</v>
@@ -3930,13 +4012,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D181" t="n">
-        <v>899502</v>
+        <v>17007</v>
       </c>
       <c r="E181" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F181" t="s">
         <v>52</v>
@@ -3950,13 +4032,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D182" t="n">
-        <v>35216</v>
+        <v>10131</v>
       </c>
       <c r="E182" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F182" t="s">
         <v>52</v>
@@ -3970,13 +4052,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D183" t="n">
-        <v>464862</v>
+        <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
         <v>52</v>
@@ -3990,13 +4072,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D184" t="n">
-        <v>437650</v>
+        <v>25452</v>
       </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F184" t="s">
         <v>52</v>
@@ -4010,13 +4092,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D185" t="n">
-        <v>1813025</v>
+        <v>519056</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
         <v>52</v>
@@ -4030,13 +4112,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D186" t="n">
-        <v>179840</v>
+        <v>13797</v>
       </c>
       <c r="E186" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
         <v>52</v>
@@ -4050,13 +4132,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D187" t="n">
-        <v>1030961</v>
+        <v>88175</v>
       </c>
       <c r="E187" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F187" t="s">
         <v>52</v>
@@ -4070,13 +4152,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D188" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
         <v>52</v>
@@ -4090,13 +4172,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D189" t="n">
-        <v>1309803</v>
+        <v>22800</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
         <v>52</v>
@@ -4110,13 +4192,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D190" t="n">
-        <v>419527</v>
+        <v>35628</v>
       </c>
       <c r="E190" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
         <v>52</v>
@@ -4130,13 +4212,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D191" t="n">
-        <v>2800</v>
+        <v>22300</v>
       </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
         <v>52</v>
@@ -4150,13 +4232,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D192" t="n">
-        <v>12190506</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
         <v>52</v>
@@ -4170,13 +4252,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D193" t="n">
-        <v>432400</v>
+        <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
         <v>52</v>
@@ -4193,11 +4275,13 @@
         <v>53</v>
       </c>
       <c r="D194" t="n">
-        <v>4269478</v>
-      </c>
-      <c r="E194"/>
+        <v>197511</v>
+      </c>
+      <c r="E194" t="s">
+        <v>54</v>
+      </c>
       <c r="F194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195">
@@ -4211,11 +4295,13 @@
         <v>53</v>
       </c>
       <c r="D195" t="n">
-        <v>401600</v>
-      </c>
-      <c r="E195"/>
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>54</v>
+      </c>
       <c r="F195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196">
@@ -4231,9 +4317,11 @@
       <c r="D196" t="n">
         <v>0</v>
       </c>
-      <c r="E196"/>
+      <c r="E196" t="s">
+        <v>54</v>
+      </c>
       <c r="F196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197">
@@ -4247,11 +4335,13 @@
         <v>53</v>
       </c>
       <c r="D197" t="n">
-        <v>395008</v>
-      </c>
-      <c r="E197"/>
+        <v>30000</v>
+      </c>
+      <c r="E197" t="s">
+        <v>54</v>
+      </c>
       <c r="F197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
@@ -4265,11 +4355,13 @@
         <v>53</v>
       </c>
       <c r="D198" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E198"/>
+        <v>1021</v>
+      </c>
+      <c r="E198" t="s">
+        <v>54</v>
+      </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
@@ -4283,11 +4375,13 @@
         <v>53</v>
       </c>
       <c r="D199" t="n">
-        <v>24500</v>
-      </c>
-      <c r="E199"/>
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>54</v>
+      </c>
       <c r="F199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200">
@@ -4301,11 +4395,13 @@
         <v>53</v>
       </c>
       <c r="D200" t="n">
-        <v>105000</v>
-      </c>
-      <c r="E200"/>
+        <v>280</v>
+      </c>
+      <c r="E200" t="s">
+        <v>54</v>
+      </c>
       <c r="F200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201">
@@ -4319,11 +4415,13 @@
         <v>53</v>
       </c>
       <c r="D201" t="n">
-        <v>136700</v>
-      </c>
-      <c r="E201"/>
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
       <c r="F201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202">
@@ -4337,11 +4435,13 @@
         <v>53</v>
       </c>
       <c r="D202" t="n">
-        <v>94100</v>
-      </c>
-      <c r="E202"/>
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>54</v>
+      </c>
       <c r="F202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203">
@@ -4357,9 +4457,11 @@
       <c r="D203" t="n">
         <v>0</v>
       </c>
-      <c r="E203"/>
+      <c r="E203" t="s">
+        <v>54</v>
+      </c>
       <c r="F203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
@@ -4373,11 +4475,13 @@
         <v>53</v>
       </c>
       <c r="D204" t="n">
-        <v>373230</v>
-      </c>
-      <c r="E204"/>
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>54</v>
+      </c>
       <c r="F204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205">
@@ -4391,11 +4495,13 @@
         <v>53</v>
       </c>
       <c r="D205" t="n">
-        <v>145100</v>
-      </c>
-      <c r="E205"/>
+        <v>3581</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
       <c r="F205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206">
@@ -4409,11 +4515,13 @@
         <v>53</v>
       </c>
       <c r="D206" t="n">
-        <v>619430</v>
-      </c>
-      <c r="E206"/>
+        <v>36850</v>
+      </c>
+      <c r="E206" t="s">
+        <v>54</v>
+      </c>
       <c r="F206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
@@ -4429,9 +4537,11 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
-      <c r="E207"/>
+      <c r="E207" t="s">
+        <v>54</v>
+      </c>
       <c r="F207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208">
@@ -4445,11 +4555,13 @@
         <v>53</v>
       </c>
       <c r="D208" t="n">
-        <v>33015</v>
-      </c>
-      <c r="E208"/>
+        <v>1410</v>
+      </c>
+      <c r="E208" t="s">
+        <v>54</v>
+      </c>
       <c r="F208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
@@ -4463,11 +4575,13 @@
         <v>53</v>
       </c>
       <c r="D209" t="n">
-        <v>174000</v>
-      </c>
-      <c r="E209"/>
+        <v>8357</v>
+      </c>
+      <c r="E209" t="s">
+        <v>54</v>
+      </c>
       <c r="F209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210">
@@ -4481,11 +4595,13 @@
         <v>53</v>
       </c>
       <c r="D210" t="n">
-        <v>687912</v>
-      </c>
-      <c r="E210"/>
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>54</v>
+      </c>
       <c r="F210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
@@ -4499,11 +4615,13 @@
         <v>53</v>
       </c>
       <c r="D211" t="n">
-        <v>16812</v>
-      </c>
-      <c r="E211"/>
+        <v>35109</v>
+      </c>
+      <c r="E211" t="s">
+        <v>54</v>
+      </c>
       <c r="F211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212">
@@ -4517,11 +4635,13 @@
         <v>53</v>
       </c>
       <c r="D212" t="n">
-        <v>249717</v>
-      </c>
-      <c r="E212"/>
+        <v>5130</v>
+      </c>
+      <c r="E212" t="s">
+        <v>54</v>
+      </c>
       <c r="F212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213">
@@ -4535,11 +4655,13 @@
         <v>53</v>
       </c>
       <c r="D213" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E213"/>
+        <v>250</v>
+      </c>
+      <c r="E213" t="s">
+        <v>54</v>
+      </c>
       <c r="F213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214">
@@ -4555,9 +4677,11 @@
       <c r="D214" t="n">
         <v>0</v>
       </c>
-      <c r="E214"/>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
       <c r="F214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215">
@@ -4573,9 +4697,11 @@
       <c r="D215" t="n">
         <v>0</v>
       </c>
-      <c r="E215"/>
+      <c r="E215" t="s">
+        <v>54</v>
+      </c>
       <c r="F215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216">
@@ -4589,11 +4715,13 @@
         <v>53</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216"/>
+        <v>3360</v>
+      </c>
+      <c r="E216" t="s">
+        <v>54</v>
+      </c>
       <c r="F216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217">
@@ -4607,11 +4735,13 @@
         <v>53</v>
       </c>
       <c r="D217" t="n">
-        <v>310226</v>
-      </c>
-      <c r="E217"/>
+        <v>8434</v>
+      </c>
+      <c r="E217" t="s">
+        <v>54</v>
+      </c>
       <c r="F217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218">
@@ -4625,11 +4755,13 @@
         <v>53</v>
       </c>
       <c r="D218" t="n">
-        <v>19180</v>
-      </c>
-      <c r="E218"/>
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>54</v>
+      </c>
       <c r="F218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219">
@@ -4645,9 +4777,11 @@
       <c r="D219" t="n">
         <v>0</v>
       </c>
-      <c r="E219"/>
+      <c r="E219" t="s">
+        <v>54</v>
+      </c>
       <c r="F219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220">
@@ -4663,9 +4797,11 @@
       <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220"/>
+      <c r="E220" t="s">
+        <v>54</v>
+      </c>
       <c r="F220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221">
@@ -4679,11 +4815,13 @@
         <v>53</v>
       </c>
       <c r="D221" t="n">
-        <v>80000</v>
-      </c>
-      <c r="E221"/>
+        <v>50</v>
+      </c>
+      <c r="E221" t="s">
+        <v>54</v>
+      </c>
       <c r="F221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222">
@@ -4697,11 +4835,13 @@
         <v>53</v>
       </c>
       <c r="D222" t="n">
-        <v>72848</v>
-      </c>
-      <c r="E222"/>
+        <v>21000</v>
+      </c>
+      <c r="E222" t="s">
+        <v>54</v>
+      </c>
       <c r="F222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223">
@@ -4715,11 +4855,13 @@
         <v>53</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223"/>
+        <v>529</v>
+      </c>
+      <c r="E223" t="s">
+        <v>54</v>
+      </c>
       <c r="F223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224">
@@ -4733,11 +4875,13 @@
         <v>53</v>
       </c>
       <c r="D224" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E224"/>
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>54</v>
+      </c>
       <c r="F224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225">
@@ -4751,11 +4895,13 @@
         <v>53</v>
       </c>
       <c r="D225" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E225"/>
+        <v>41950</v>
+      </c>
+      <c r="E225" t="s">
+        <v>54</v>
+      </c>
       <c r="F225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
@@ -4766,14 +4912,16 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D226" t="n">
-        <v>49714812</v>
-      </c>
-      <c r="E226"/>
+        <v>5496</v>
+      </c>
+      <c r="E226" t="s">
+        <v>57</v>
+      </c>
       <c r="F226" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227">
@@ -4784,14 +4932,16 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D227" t="n">
-        <v>1718410</v>
-      </c>
-      <c r="E227"/>
+        <v>980</v>
+      </c>
+      <c r="E227" t="s">
+        <v>57</v>
+      </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228">
@@ -4802,14 +4952,16 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D228" t="n">
-        <v>397618</v>
-      </c>
-      <c r="E228"/>
+        <v>93</v>
+      </c>
+      <c r="E228" t="s">
+        <v>57</v>
+      </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229">
@@ -4820,14 +4972,16 @@
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D229" t="n">
-        <v>4119238</v>
-      </c>
-      <c r="E229"/>
+        <v>274</v>
+      </c>
+      <c r="E229" t="s">
+        <v>57</v>
+      </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="230">
@@ -4838,14 +4992,16 @@
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D230" t="n">
-        <v>1143000</v>
-      </c>
-      <c r="E230"/>
+        <v>70</v>
+      </c>
+      <c r="E230" t="s">
+        <v>57</v>
+      </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231">
@@ -4856,14 +5012,16 @@
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D231" t="n">
-        <v>11110996</v>
-      </c>
-      <c r="E231"/>
+        <v>443</v>
+      </c>
+      <c r="E231" t="s">
+        <v>57</v>
+      </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
@@ -4874,14 +5032,16 @@
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D232" t="n">
-        <v>1384994</v>
-      </c>
-      <c r="E232"/>
+        <v>182</v>
+      </c>
+      <c r="E232" t="s">
+        <v>57</v>
+      </c>
       <c r="F232" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233">
@@ -4892,14 +5052,16 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D233" t="n">
-        <v>827700</v>
-      </c>
-      <c r="E233"/>
+        <v>386</v>
+      </c>
+      <c r="E233" t="s">
+        <v>57</v>
+      </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234">
@@ -4910,14 +5072,16 @@
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D234" t="n">
-        <v>1250218</v>
-      </c>
-      <c r="E234"/>
+        <v>359</v>
+      </c>
+      <c r="E234" t="s">
+        <v>57</v>
+      </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235">
@@ -4928,14 +5092,16 @@
         <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D235" t="n">
-        <v>97647</v>
-      </c>
-      <c r="E235"/>
+        <v>164</v>
+      </c>
+      <c r="E235" t="s">
+        <v>57</v>
+      </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236">
@@ -4946,14 +5112,16 @@
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D236" t="n">
-        <v>1650901</v>
-      </c>
-      <c r="E236"/>
+        <v>396</v>
+      </c>
+      <c r="E236" t="s">
+        <v>57</v>
+      </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237">
@@ -4964,14 +5132,16 @@
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D237" t="n">
-        <v>473000</v>
-      </c>
-      <c r="E237"/>
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>57</v>
+      </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238">
@@ -4982,14 +5152,16 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D238" t="n">
-        <v>1902632</v>
-      </c>
-      <c r="E238"/>
+        <v>62</v>
+      </c>
+      <c r="E238" t="s">
+        <v>57</v>
+      </c>
       <c r="F238" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239">
@@ -5000,14 +5172,16 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D239" t="n">
-        <v>486899</v>
-      </c>
-      <c r="E239"/>
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>57</v>
+      </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240">
@@ -5018,14 +5192,16 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D240" t="n">
-        <v>737170</v>
-      </c>
-      <c r="E240"/>
+        <v>65</v>
+      </c>
+      <c r="E240" t="s">
+        <v>57</v>
+      </c>
       <c r="F240" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="241">
@@ -5036,14 +5212,16 @@
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D241" t="n">
-        <v>4268958</v>
-      </c>
-      <c r="E241"/>
+        <v>359</v>
+      </c>
+      <c r="E241" t="s">
+        <v>57</v>
+      </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="242">
@@ -5054,14 +5232,16 @@
         <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D242" t="n">
-        <v>7046085</v>
-      </c>
-      <c r="E242"/>
+        <v>655</v>
+      </c>
+      <c r="E242" t="s">
+        <v>57</v>
+      </c>
       <c r="F242" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="243">
@@ -5072,14 +5252,16 @@
         <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D243" t="n">
-        <v>1875125</v>
-      </c>
-      <c r="E243"/>
+        <v>52</v>
+      </c>
+      <c r="E243" t="s">
+        <v>57</v>
+      </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="244">
@@ -5090,14 +5272,16 @@
         <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D244" t="n">
-        <v>729483</v>
-      </c>
-      <c r="E244"/>
+        <v>48</v>
+      </c>
+      <c r="E244" t="s">
+        <v>57</v>
+      </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245">
@@ -5108,14 +5292,16 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D245" t="n">
-        <v>729502</v>
-      </c>
-      <c r="E245"/>
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>57</v>
+      </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="246">
@@ -5126,14 +5312,16 @@
         <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D246" t="n">
-        <v>35216</v>
-      </c>
-      <c r="E246"/>
+        <v>89</v>
+      </c>
+      <c r="E246" t="s">
+        <v>57</v>
+      </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="247">
@@ -5144,14 +5332,16 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D247" t="n">
-        <v>464862</v>
-      </c>
-      <c r="E247"/>
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>57</v>
+      </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="248">
@@ -5162,14 +5352,16 @@
         <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D248" t="n">
-        <v>437650</v>
-      </c>
-      <c r="E248"/>
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>57</v>
+      </c>
       <c r="F248" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="249">
@@ -5180,14 +5372,16 @@
         <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D249" t="n">
-        <v>1502799</v>
-      </c>
-      <c r="E249"/>
+        <v>81</v>
+      </c>
+      <c r="E249" t="s">
+        <v>57</v>
+      </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250">
@@ -5198,14 +5392,16 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D250" t="n">
-        <v>160660</v>
-      </c>
-      <c r="E250"/>
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>57</v>
+      </c>
       <c r="F250" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="251">
@@ -5216,14 +5412,16 @@
         <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D251" t="n">
-        <v>1030961</v>
-      </c>
-      <c r="E251"/>
+        <v>121</v>
+      </c>
+      <c r="E251" t="s">
+        <v>57</v>
+      </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252">
@@ -5234,14 +5432,16 @@
         <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D252" t="n">
-        <v>22000</v>
-      </c>
-      <c r="E252"/>
+        <v>74</v>
+      </c>
+      <c r="E252" t="s">
+        <v>57</v>
+      </c>
       <c r="F252" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253">
@@ -5252,14 +5452,16 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D253" t="n">
-        <v>1229803</v>
-      </c>
-      <c r="E253"/>
+        <v>130</v>
+      </c>
+      <c r="E253" t="s">
+        <v>57</v>
+      </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254">
@@ -5270,14 +5472,16 @@
         <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D254" t="n">
-        <v>346679</v>
-      </c>
-      <c r="E254"/>
+        <v>58</v>
+      </c>
+      <c r="E254" t="s">
+        <v>57</v>
+      </c>
       <c r="F254" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255">
@@ -5288,14 +5492,16 @@
         <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D255" t="n">
-        <v>2800</v>
-      </c>
-      <c r="E255"/>
+        <v>71</v>
+      </c>
+      <c r="E255" t="s">
+        <v>57</v>
+      </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -5306,14 +5512,16 @@
         <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D256" t="n">
-        <v>2119406</v>
-      </c>
-      <c r="E256"/>
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>57</v>
+      </c>
       <c r="F256" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="257">
@@ -5324,14 +5532,1296 @@
         <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D257" t="n">
-        <v>412400</v>
-      </c>
-      <c r="E257"/>
+        <v>284</v>
+      </c>
+      <c r="E257" t="s">
+        <v>57</v>
+      </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>59</v>
+      </c>
+      <c r="D258" t="n">
+        <v>423</v>
+      </c>
+      <c r="E258" t="s">
+        <v>47</v>
+      </c>
+      <c r="F258" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>59</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>47</v>
+      </c>
+      <c r="F259" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>47</v>
+      </c>
+      <c r="F260" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>59</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5</v>
+      </c>
+      <c r="E261" t="s">
+        <v>47</v>
+      </c>
+      <c r="F261" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>59</v>
+      </c>
+      <c r="D262" t="n">
+        <v>23</v>
+      </c>
+      <c r="E262" t="s">
+        <v>47</v>
+      </c>
+      <c r="F262" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>59</v>
+      </c>
+      <c r="D263" t="n">
+        <v>87</v>
+      </c>
+      <c r="E263" t="s">
+        <v>47</v>
+      </c>
+      <c r="F263" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>47</v>
+      </c>
+      <c r="F264" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>59</v>
+      </c>
+      <c r="D265" t="n">
+        <v>70</v>
+      </c>
+      <c r="E265" t="s">
+        <v>47</v>
+      </c>
+      <c r="F265" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>59</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>47</v>
+      </c>
+      <c r="F266" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>19</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>59</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>47</v>
+      </c>
+      <c r="F267" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>20</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>59</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>47</v>
+      </c>
+      <c r="F268" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>59</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>47</v>
+      </c>
+      <c r="F269" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>59</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>47</v>
+      </c>
+      <c r="F270" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>59</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>47</v>
+      </c>
+      <c r="F271" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>59</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>47</v>
+      </c>
+      <c r="F272" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" t="s">
+        <v>59</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>47</v>
+      </c>
+      <c r="F273" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>26</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>59</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>47</v>
+      </c>
+      <c r="F274" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>59</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>47</v>
+      </c>
+      <c r="F275" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>28</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s">
+        <v>59</v>
+      </c>
+      <c r="D276" t="n">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>47</v>
+      </c>
+      <c r="F276" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>59</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>47</v>
+      </c>
+      <c r="F277" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>59</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>47</v>
+      </c>
+      <c r="F278" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>31</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>59</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>47</v>
+      </c>
+      <c r="F279" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>59</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>47</v>
+      </c>
+      <c r="F280" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>33</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>59</v>
+      </c>
+      <c r="D281" t="n">
+        <v>226</v>
+      </c>
+      <c r="E281" t="s">
+        <v>47</v>
+      </c>
+      <c r="F281" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>34</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>59</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>47</v>
+      </c>
+      <c r="F282" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>35</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>59</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>47</v>
+      </c>
+      <c r="F283" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>36</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>59</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>47</v>
+      </c>
+      <c r="F284" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>37</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>59</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>47</v>
+      </c>
+      <c r="F285" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>38</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>59</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>47</v>
+      </c>
+      <c r="F286" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>39</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>47</v>
+      </c>
+      <c r="F287" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>40</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>47</v>
+      </c>
+      <c r="F288" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>41</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>59</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>47</v>
+      </c>
+      <c r="F289" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>61</v>
+      </c>
+      <c r="D290" t="n">
+        <v>111890</v>
+      </c>
+      <c r="E290" t="s">
+        <v>57</v>
+      </c>
+      <c r="F290" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>61</v>
+      </c>
+      <c r="D291" t="n">
+        <v>354</v>
+      </c>
+      <c r="E291" t="s">
+        <v>57</v>
+      </c>
+      <c r="F291" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>61</v>
+      </c>
+      <c r="D292" t="n">
+        <v>995</v>
+      </c>
+      <c r="E292" t="s">
+        <v>57</v>
+      </c>
+      <c r="F292" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>61</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3147</v>
+      </c>
+      <c r="E293" t="s">
+        <v>57</v>
+      </c>
+      <c r="F293" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>61</v>
+      </c>
+      <c r="D294" t="n">
+        <v>19433</v>
+      </c>
+      <c r="E294" t="s">
+        <v>57</v>
+      </c>
+      <c r="F294" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295" t="n">
+        <v>484</v>
+      </c>
+      <c r="E295" t="s">
+        <v>57</v>
+      </c>
+      <c r="F295" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>61</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2077</v>
+      </c>
+      <c r="E296" t="s">
+        <v>57</v>
+      </c>
+      <c r="F296" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>61</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3331</v>
+      </c>
+      <c r="E297" t="s">
+        <v>57</v>
+      </c>
+      <c r="F297" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>61</v>
+      </c>
+      <c r="D298" t="n">
+        <v>8226</v>
+      </c>
+      <c r="E298" t="s">
+        <v>57</v>
+      </c>
+      <c r="F298" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>61</v>
+      </c>
+      <c r="D299" t="n">
+        <v>259</v>
+      </c>
+      <c r="E299" t="s">
+        <v>57</v>
+      </c>
+      <c r="F299" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>61</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3625</v>
+      </c>
+      <c r="E300" t="s">
+        <v>57</v>
+      </c>
+      <c r="F300" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>61</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E301" t="s">
+        <v>57</v>
+      </c>
+      <c r="F301" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>22</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>61</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3357</v>
+      </c>
+      <c r="E302" t="s">
+        <v>57</v>
+      </c>
+      <c r="F302" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>61</v>
+      </c>
+      <c r="D303" t="n">
+        <v>468</v>
+      </c>
+      <c r="E303" t="s">
+        <v>57</v>
+      </c>
+      <c r="F303" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>61</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E304" t="s">
+        <v>57</v>
+      </c>
+      <c r="F304" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>61</v>
+      </c>
+      <c r="D305" t="n">
+        <v>14088</v>
+      </c>
+      <c r="E305" t="s">
+        <v>57</v>
+      </c>
+      <c r="F305" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>61</v>
+      </c>
+      <c r="D306" t="n">
+        <v>17523</v>
+      </c>
+      <c r="E306" t="s">
+        <v>57</v>
+      </c>
+      <c r="F306" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>27</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>61</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>57</v>
+      </c>
+      <c r="F307" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>28</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>61</v>
+      </c>
+      <c r="D308" t="n">
+        <v>7375</v>
+      </c>
+      <c r="E308" t="s">
+        <v>57</v>
+      </c>
+      <c r="F308" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>61</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1958</v>
+      </c>
+      <c r="E309" t="s">
+        <v>57</v>
+      </c>
+      <c r="F309" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>61</v>
+      </c>
+      <c r="D310" t="n">
+        <v>567</v>
+      </c>
+      <c r="E310" t="s">
+        <v>57</v>
+      </c>
+      <c r="F310" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>31</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>61</v>
+      </c>
+      <c r="D311" t="n">
+        <v>781</v>
+      </c>
+      <c r="E311" t="s">
+        <v>57</v>
+      </c>
+      <c r="F311" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>61</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2286</v>
+      </c>
+      <c r="E312" t="s">
+        <v>57</v>
+      </c>
+      <c r="F312" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>33</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>61</v>
+      </c>
+      <c r="D313" t="n">
+        <v>6921</v>
+      </c>
+      <c r="E313" t="s">
+        <v>57</v>
+      </c>
+      <c r="F313" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>34</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>61</v>
+      </c>
+      <c r="D314" t="n">
+        <v>444</v>
+      </c>
+      <c r="E314" t="s">
+        <v>57</v>
+      </c>
+      <c r="F314" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>35</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>61</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7980</v>
+      </c>
+      <c r="E315" t="s">
+        <v>57</v>
+      </c>
+      <c r="F315" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>61</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>57</v>
+      </c>
+      <c r="F316" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>37</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>61</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1855</v>
+      </c>
+      <c r="E317" t="s">
+        <v>57</v>
+      </c>
+      <c r="F317" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>38</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>61</v>
+      </c>
+      <c r="D318" t="n">
+        <v>107</v>
+      </c>
+      <c r="E318" t="s">
+        <v>57</v>
+      </c>
+      <c r="F318" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>39</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>61</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>57</v>
+      </c>
+      <c r="F319" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>40</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>61</v>
+      </c>
+      <c r="D320" t="n">
+        <v>117</v>
+      </c>
+      <c r="E320" t="s">
+        <v>57</v>
+      </c>
+      <c r="F320" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>41</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>61</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>57</v>
+      </c>
+      <c r="F321" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
